--- a/data/Web_MEM_MGU/2024_03_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2024_03_mem_mgu.xlsx
@@ -1182,7 +1182,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1711040400</v>
+        <v>1711029600</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1711044000</v>
+        <v>1711033200</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1711047600</v>
+        <v>1711036800</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1711051200</v>
+        <v>1711040400</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1711054800</v>
+        <v>1711044000</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1711058400</v>
+        <v>1711047600</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1711062000</v>
+        <v>1711051200</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1711065600</v>
+        <v>1711054800</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1711069200</v>
+        <v>1711058400</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1711072800</v>
+        <v>1711062000</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1711076400</v>
+        <v>1711065600</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1711080000</v>
+        <v>1711069200</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1711083600</v>
+        <v>1711072800</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1711087200</v>
+        <v>1711076400</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1711090800</v>
+        <v>1711080000</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1711094400</v>
+        <v>1711083600</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1711098000</v>
+        <v>1711087200</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1711101600</v>
+        <v>1711090800</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1711105200</v>
+        <v>1711094400</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1711108800</v>
+        <v>1711098000</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1711112400</v>
+        <v>1711101600</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1711116000</v>
+        <v>1711105200</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1711119600</v>
+        <v>1711108800</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1711123200</v>
+        <v>1711112400</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1711126800</v>
+        <v>1711116000</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1711130400</v>
+        <v>1711119600</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1711134000</v>
+        <v>1711123200</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1711137600</v>
+        <v>1711126800</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1711141200</v>
+        <v>1711130400</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1711144800</v>
+        <v>1711134000</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1711148400</v>
+        <v>1711137600</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1711152000</v>
+        <v>1711141200</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1711155600</v>
+        <v>1711144800</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1711159200</v>
+        <v>1711148400</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1711162800</v>
+        <v>1711152000</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1711166400</v>
+        <v>1711155600</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1711170000</v>
+        <v>1711159200</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1711173600</v>
+        <v>1711162800</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1711177200</v>
+        <v>1711166400</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1711180800</v>
+        <v>1711170000</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1711184400</v>
+        <v>1711173600</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1711188000</v>
+        <v>1711177200</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1711191600</v>
+        <v>1711180800</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1711195200</v>
+        <v>1711184400</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1711198800</v>
+        <v>1711188000</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1711202400</v>
+        <v>1711191600</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1711206000</v>
+        <v>1711195200</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1711209600</v>
+        <v>1711198800</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1711213200</v>
+        <v>1711202400</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1711216800</v>
+        <v>1711206000</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1711220400</v>
+        <v>1711209600</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1711224000</v>
+        <v>1711213200</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1711227600</v>
+        <v>1711216800</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1711231200</v>
+        <v>1711220400</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1711234800</v>
+        <v>1711224000</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1711238400</v>
+        <v>1711227600</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1711242000</v>
+        <v>1711231200</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1711245600</v>
+        <v>1711234800</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1711249200</v>
+        <v>1711238400</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1711252800</v>
+        <v>1711242000</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1711252800</v>
+        <v>1711242000</v>
       </c>
       <c r="B62" t="s">
         <v>69</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1711256400</v>
+        <v>1711245600</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1711260000</v>
+        <v>1711249200</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1711263600</v>
+        <v>1711252800</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1711267200</v>
+        <v>1711256400</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1711270800</v>
+        <v>1711260000</v>
       </c>
       <c r="B67" t="s">
         <v>74</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1711274400</v>
+        <v>1711263600</v>
       </c>
       <c r="B68" t="s">
         <v>75</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1711278000</v>
+        <v>1711267200</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1711281600</v>
+        <v>1711270800</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1711285200</v>
+        <v>1711274400</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1711288800</v>
+        <v>1711278000</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1711292400</v>
+        <v>1711281600</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1711296000</v>
+        <v>1711285200</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1711299600</v>
+        <v>1711288800</v>
       </c>
       <c r="B75" t="s">
         <v>82</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1711303200</v>
+        <v>1711292400</v>
       </c>
       <c r="B76" t="s">
         <v>83</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1711306800</v>
+        <v>1711296000</v>
       </c>
       <c r="B77" t="s">
         <v>84</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1711310400</v>
+        <v>1711299600</v>
       </c>
       <c r="B78" t="s">
         <v>85</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1711314000</v>
+        <v>1711303200</v>
       </c>
       <c r="B79" t="s">
         <v>86</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1711317600</v>
+        <v>1711306800</v>
       </c>
       <c r="B80" t="s">
         <v>87</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1711321200</v>
+        <v>1711310400</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1711324800</v>
+        <v>1711314000</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1711328400</v>
+        <v>1711317600</v>
       </c>
       <c r="B83" t="s">
         <v>90</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1711332000</v>
+        <v>1711321200</v>
       </c>
       <c r="B84" t="s">
         <v>91</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1711335600</v>
+        <v>1711324800</v>
       </c>
       <c r="B85" t="s">
         <v>92</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1711339200</v>
+        <v>1711328400</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1711342800</v>
+        <v>1711332000</v>
       </c>
       <c r="B87" t="s">
         <v>94</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1711346400</v>
+        <v>1711335600</v>
       </c>
       <c r="B88" t="s">
         <v>95</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1711350000</v>
+        <v>1711339200</v>
       </c>
       <c r="B89" t="s">
         <v>96</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1711353600</v>
+        <v>1711342800</v>
       </c>
       <c r="B90" t="s">
         <v>97</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1711357200</v>
+        <v>1711346400</v>
       </c>
       <c r="B91" t="s">
         <v>98</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1711360800</v>
+        <v>1711350000</v>
       </c>
       <c r="B92" t="s">
         <v>99</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1711364400</v>
+        <v>1711353600</v>
       </c>
       <c r="B93" t="s">
         <v>100</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1711368000</v>
+        <v>1711357200</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1711371600</v>
+        <v>1711360800</v>
       </c>
       <c r="B95" t="s">
         <v>102</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1711375200</v>
+        <v>1711364400</v>
       </c>
       <c r="B96" t="s">
         <v>103</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1711378800</v>
+        <v>1711368000</v>
       </c>
       <c r="B97" t="s">
         <v>104</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1711382400</v>
+        <v>1711371600</v>
       </c>
       <c r="B98" t="s">
         <v>105</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1711386000</v>
+        <v>1711375200</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1711389600</v>
+        <v>1711378800</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1711393200</v>
+        <v>1711382400</v>
       </c>
       <c r="B101" t="s">
         <v>108</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1711396800</v>
+        <v>1711386000</v>
       </c>
       <c r="B102" t="s">
         <v>109</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1711400400</v>
+        <v>1711389600</v>
       </c>
       <c r="B103" t="s">
         <v>110</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1711404000</v>
+        <v>1711393200</v>
       </c>
       <c r="B104" t="s">
         <v>111</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1711407600</v>
+        <v>1711396800</v>
       </c>
       <c r="B105" t="s">
         <v>112</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1711411200</v>
+        <v>1711400400</v>
       </c>
       <c r="B106" t="s">
         <v>113</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1711414800</v>
+        <v>1711404000</v>
       </c>
       <c r="B107" t="s">
         <v>114</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1711418400</v>
+        <v>1711407600</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1711422000</v>
+        <v>1711411200</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1711425600</v>
+        <v>1711414800</v>
       </c>
       <c r="B110" t="s">
         <v>117</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1711429200</v>
+        <v>1711418400</v>
       </c>
       <c r="B111" t="s">
         <v>118</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1711432800</v>
+        <v>1711422000</v>
       </c>
       <c r="B112" t="s">
         <v>119</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1711436400</v>
+        <v>1711425600</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1711440000</v>
+        <v>1711429200</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1711443600</v>
+        <v>1711432800</v>
       </c>
       <c r="B115" t="s">
         <v>122</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1711447200</v>
+        <v>1711436400</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1711450800</v>
+        <v>1711440000</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1711454400</v>
+        <v>1711443600</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1711458000</v>
+        <v>1711447200</v>
       </c>
       <c r="B119" t="s">
         <v>126</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1711461600</v>
+        <v>1711450800</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1711465200</v>
+        <v>1711454400</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1711468800</v>
+        <v>1711458000</v>
       </c>
       <c r="B122" t="s">
         <v>129</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1711472400</v>
+        <v>1711461600</v>
       </c>
       <c r="B123" t="s">
         <v>130</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1711476000</v>
+        <v>1711465200</v>
       </c>
       <c r="B124" t="s">
         <v>131</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1711479600</v>
+        <v>1711468800</v>
       </c>
       <c r="B125" t="s">
         <v>132</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1711483200</v>
+        <v>1711472400</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1711486800</v>
+        <v>1711476000</v>
       </c>
       <c r="B127" t="s">
         <v>134</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1711490400</v>
+        <v>1711479600</v>
       </c>
       <c r="B128" t="s">
         <v>135</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1711494000</v>
+        <v>1711483200</v>
       </c>
       <c r="B129" t="s">
         <v>136</v>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1711497600</v>
+        <v>1711486800</v>
       </c>
       <c r="B130" t="s">
         <v>137</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1711501200</v>
+        <v>1711490400</v>
       </c>
       <c r="B131" t="s">
         <v>138</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1711504800</v>
+        <v>1711494000</v>
       </c>
       <c r="B132" t="s">
         <v>139</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1711508400</v>
+        <v>1711497600</v>
       </c>
       <c r="B133" t="s">
         <v>140</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1711512000</v>
+        <v>1711501200</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1711515600</v>
+        <v>1711504800</v>
       </c>
       <c r="B135" t="s">
         <v>142</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1711519200</v>
+        <v>1711508400</v>
       </c>
       <c r="B136" t="s">
         <v>143</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1711522800</v>
+        <v>1711512000</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1711526400</v>
+        <v>1711515600</v>
       </c>
       <c r="B138" t="s">
         <v>145</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1711530000</v>
+        <v>1711519200</v>
       </c>
       <c r="B139" t="s">
         <v>146</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1711533600</v>
+        <v>1711522800</v>
       </c>
       <c r="B140" t="s">
         <v>147</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1711537200</v>
+        <v>1711526400</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1711540800</v>
+        <v>1711530000</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1711544400</v>
+        <v>1711533600</v>
       </c>
       <c r="B143" t="s">
         <v>150</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1711548000</v>
+        <v>1711537200</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1711551600</v>
+        <v>1711540800</v>
       </c>
       <c r="B145" t="s">
         <v>152</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1711555200</v>
+        <v>1711544400</v>
       </c>
       <c r="B146" t="s">
         <v>153</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1711558800</v>
+        <v>1711548000</v>
       </c>
       <c r="B147" t="s">
         <v>154</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1711562400</v>
+        <v>1711551600</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1711566000</v>
+        <v>1711555200</v>
       </c>
       <c r="B149" t="s">
         <v>156</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1711569600</v>
+        <v>1711558800</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1711573200</v>
+        <v>1711562400</v>
       </c>
       <c r="B151" t="s">
         <v>158</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1711576800</v>
+        <v>1711566000</v>
       </c>
       <c r="B152" t="s">
         <v>159</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1711580400</v>
+        <v>1711569600</v>
       </c>
       <c r="B153" t="s">
         <v>160</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1711584000</v>
+        <v>1711573200</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1711587600</v>
+        <v>1711576800</v>
       </c>
       <c r="B155" t="s">
         <v>162</v>
@@ -6110,7 +6110,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1711591200</v>
+        <v>1711580400</v>
       </c>
       <c r="B156" t="s">
         <v>163</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1711594800</v>
+        <v>1711584000</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1711598400</v>
+        <v>1711587600</v>
       </c>
       <c r="B158" t="s">
         <v>165</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1711602000</v>
+        <v>1711591200</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1711605600</v>
+        <v>1711594800</v>
       </c>
       <c r="B160" t="s">
         <v>167</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1711609200</v>
+        <v>1711598400</v>
       </c>
       <c r="B161" t="s">
         <v>168</v>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1711612800</v>
+        <v>1711602000</v>
       </c>
       <c r="B162" t="s">
         <v>169</v>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1711616400</v>
+        <v>1711605600</v>
       </c>
       <c r="B163" t="s">
         <v>170</v>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1711620000</v>
+        <v>1711609200</v>
       </c>
       <c r="B164" t="s">
         <v>171</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1711623600</v>
+        <v>1711612800</v>
       </c>
       <c r="B165" t="s">
         <v>172</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1711627200</v>
+        <v>1711616400</v>
       </c>
       <c r="B166" t="s">
         <v>173</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1711630800</v>
+        <v>1711620000</v>
       </c>
       <c r="B167" t="s">
         <v>174</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1711634400</v>
+        <v>1711623600</v>
       </c>
       <c r="B168" t="s">
         <v>175</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1711638000</v>
+        <v>1711627200</v>
       </c>
       <c r="B169" t="s">
         <v>176</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1711641600</v>
+        <v>1711630800</v>
       </c>
       <c r="B170" t="s">
         <v>177</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1711645200</v>
+        <v>1711634400</v>
       </c>
       <c r="B171" t="s">
         <v>178</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1711648800</v>
+        <v>1711638000</v>
       </c>
       <c r="B172" t="s">
         <v>179</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1711652400</v>
+        <v>1711641600</v>
       </c>
       <c r="B173" t="s">
         <v>180</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1711656000</v>
+        <v>1711645200</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1711659600</v>
+        <v>1711648800</v>
       </c>
       <c r="B175" t="s">
         <v>182</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1711663200</v>
+        <v>1711652400</v>
       </c>
       <c r="B176" t="s">
         <v>183</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1711666800</v>
+        <v>1711656000</v>
       </c>
       <c r="B177" t="s">
         <v>184</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1711670400</v>
+        <v>1711659600</v>
       </c>
       <c r="B178" t="s">
         <v>185</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1711674000</v>
+        <v>1711663200</v>
       </c>
       <c r="B179" t="s">
         <v>186</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1711677600</v>
+        <v>1711666800</v>
       </c>
       <c r="B180" t="s">
         <v>187</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1711681200</v>
+        <v>1711670400</v>
       </c>
       <c r="B181" t="s">
         <v>188</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1711684800</v>
+        <v>1711674000</v>
       </c>
       <c r="B182" t="s">
         <v>189</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1711688400</v>
+        <v>1711677600</v>
       </c>
       <c r="B183" t="s">
         <v>190</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1711692000</v>
+        <v>1711681200</v>
       </c>
       <c r="B184" t="s">
         <v>191</v>
@@ -7038,7 +7038,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1711695600</v>
+        <v>1711684800</v>
       </c>
       <c r="B185" t="s">
         <v>192</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1711699200</v>
+        <v>1711688400</v>
       </c>
       <c r="B186" t="s">
         <v>193</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1711702800</v>
+        <v>1711692000</v>
       </c>
       <c r="B187" t="s">
         <v>194</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1711706400</v>
+        <v>1711695600</v>
       </c>
       <c r="B188" t="s">
         <v>195</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1711710000</v>
+        <v>1711699200</v>
       </c>
       <c r="B189" t="s">
         <v>196</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1711713600</v>
+        <v>1711702800</v>
       </c>
       <c r="B190" t="s">
         <v>197</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1711717200</v>
+        <v>1711706400</v>
       </c>
       <c r="B191" t="s">
         <v>198</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1711720800</v>
+        <v>1711710000</v>
       </c>
       <c r="B192" t="s">
         <v>199</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1711724400</v>
+        <v>1711713600</v>
       </c>
       <c r="B193" t="s">
         <v>200</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1711728000</v>
+        <v>1711717200</v>
       </c>
       <c r="B194" t="s">
         <v>201</v>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1711731600</v>
+        <v>1711720800</v>
       </c>
       <c r="B195" t="s">
         <v>202</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1711735200</v>
+        <v>1711724400</v>
       </c>
       <c r="B196" t="s">
         <v>203</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1711738800</v>
+        <v>1711728000</v>
       </c>
       <c r="B197" t="s">
         <v>204</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1711742400</v>
+        <v>1711731600</v>
       </c>
       <c r="B198" t="s">
         <v>205</v>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1711746000</v>
+        <v>1711735200</v>
       </c>
       <c r="B199" t="s">
         <v>206</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1711749600</v>
+        <v>1711738800</v>
       </c>
       <c r="B200" t="s">
         <v>207</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1711753200</v>
+        <v>1711742400</v>
       </c>
       <c r="B201" t="s">
         <v>208</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1711756800</v>
+        <v>1711746000</v>
       </c>
       <c r="B202" t="s">
         <v>209</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1711760400</v>
+        <v>1711749600</v>
       </c>
       <c r="B203" t="s">
         <v>210</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1711764000</v>
+        <v>1711753200</v>
       </c>
       <c r="B204" t="s">
         <v>211</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1711767600</v>
+        <v>1711756800</v>
       </c>
       <c r="B205" t="s">
         <v>212</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1711771200</v>
+        <v>1711760400</v>
       </c>
       <c r="B206" t="s">
         <v>213</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1711774800</v>
+        <v>1711764000</v>
       </c>
       <c r="B207" t="s">
         <v>214</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1711778400</v>
+        <v>1711767600</v>
       </c>
       <c r="B208" t="s">
         <v>215</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1711782000</v>
+        <v>1711771200</v>
       </c>
       <c r="B209" t="s">
         <v>216</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1711785600</v>
+        <v>1711774800</v>
       </c>
       <c r="B210" t="s">
         <v>217</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1711789200</v>
+        <v>1711778400</v>
       </c>
       <c r="B211" t="s">
         <v>218</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1711792800</v>
+        <v>1711782000</v>
       </c>
       <c r="B212" t="s">
         <v>219</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1711796400</v>
+        <v>1711785600</v>
       </c>
       <c r="B213" t="s">
         <v>220</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1711800000</v>
+        <v>1711789200</v>
       </c>
       <c r="B214" t="s">
         <v>221</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1711803600</v>
+        <v>1711792800</v>
       </c>
       <c r="B215" t="s">
         <v>222</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1711807200</v>
+        <v>1711796400</v>
       </c>
       <c r="B216" t="s">
         <v>223</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1711810800</v>
+        <v>1711800000</v>
       </c>
       <c r="B217" t="s">
         <v>224</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1711814400</v>
+        <v>1711803600</v>
       </c>
       <c r="B218" t="s">
         <v>225</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1711818000</v>
+        <v>1711807200</v>
       </c>
       <c r="B219" t="s">
         <v>226</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1711821600</v>
+        <v>1711810800</v>
       </c>
       <c r="B220" t="s">
         <v>227</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1711825200</v>
+        <v>1711814400</v>
       </c>
       <c r="B221" t="s">
         <v>228</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1711828800</v>
+        <v>1711818000</v>
       </c>
       <c r="B222" t="s">
         <v>229</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1711832400</v>
+        <v>1711821600</v>
       </c>
       <c r="B223" t="s">
         <v>230</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1711836000</v>
+        <v>1711825200</v>
       </c>
       <c r="B224" t="s">
         <v>231</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1711839600</v>
+        <v>1711828800</v>
       </c>
       <c r="B225" t="s">
         <v>232</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1711843200</v>
+        <v>1711832400</v>
       </c>
       <c r="B226" t="s">
         <v>233</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1711846800</v>
+        <v>1711836000</v>
       </c>
       <c r="B227" t="s">
         <v>234</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1711850400</v>
+        <v>1711839600</v>
       </c>
       <c r="B228" t="s">
         <v>235</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1711854000</v>
+        <v>1711843200</v>
       </c>
       <c r="B229" t="s">
         <v>236</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1711857600</v>
+        <v>1711846800</v>
       </c>
       <c r="B230" t="s">
         <v>237</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1711861200</v>
+        <v>1711850400</v>
       </c>
       <c r="B231" t="s">
         <v>238</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1711864800</v>
+        <v>1711854000</v>
       </c>
       <c r="B232" t="s">
         <v>239</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1711868400</v>
+        <v>1711857600</v>
       </c>
       <c r="B233" t="s">
         <v>240</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1711872000</v>
+        <v>1711861200</v>
       </c>
       <c r="B234" t="s">
         <v>241</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1711875600</v>
+        <v>1711864800</v>
       </c>
       <c r="B235" t="s">
         <v>242</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1711879200</v>
+        <v>1711868400</v>
       </c>
       <c r="B236" t="s">
         <v>243</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1711882800</v>
+        <v>1711872000</v>
       </c>
       <c r="B237" t="s">
         <v>244</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1711886400</v>
+        <v>1711875600</v>
       </c>
       <c r="B238" t="s">
         <v>245</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1711890000</v>
+        <v>1711879200</v>
       </c>
       <c r="B239" t="s">
         <v>246</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1711893600</v>
+        <v>1711882800</v>
       </c>
       <c r="B240" t="s">
         <v>247</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1711897200</v>
+        <v>1711886400</v>
       </c>
       <c r="B241" t="s">
         <v>248</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1711900800</v>
+        <v>1711890000</v>
       </c>
       <c r="B242" t="s">
         <v>249</v>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1711904400</v>
+        <v>1711893600</v>
       </c>
       <c r="B243" t="s">
         <v>250</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1711908000</v>
+        <v>1711897200</v>
       </c>
       <c r="B244" t="s">
         <v>251</v>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1711911600</v>
+        <v>1711900800</v>
       </c>
       <c r="B245" t="s">
         <v>252</v>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1711915200</v>
+        <v>1711904400</v>
       </c>
       <c r="B246" t="s">
         <v>253</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1711918800</v>
+        <v>1711908000</v>
       </c>
       <c r="B247" t="s">
         <v>254</v>
@@ -9054,7 +9054,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1711922400</v>
+        <v>1711911600</v>
       </c>
       <c r="B248" t="s">
         <v>255</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1711926000</v>
+        <v>1711915200</v>
       </c>
       <c r="B249" t="s">
         <v>256</v>
